--- a/data/머니투데이_아프간난민을미군기지로.xlsx
+++ b/data/머니투데이_아프간난민을미군기지로.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E708"/>
+  <dimension ref="A1:F707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>추천수</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>비추천수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>17</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>9</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8404,6 +9994,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8429,6 +10024,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8454,6 +10054,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8479,6 +10084,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8504,6 +10114,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8529,6 +10144,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8554,6 +10174,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8579,6 +10204,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8604,6 +10234,11 @@
           <t>17</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8629,6 +10264,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8654,6 +10294,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8679,6 +10324,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8704,6 +10354,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8729,6 +10384,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8754,6 +10414,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8779,6 +10444,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8804,6 +10474,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8829,6 +10504,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8854,6 +10534,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8879,6 +10564,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8904,6 +10594,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8929,6 +10624,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8954,6 +10654,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8979,6 +10684,11 @@
           <t>20</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9004,6 +10714,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9029,6 +10744,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9054,6 +10774,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9079,6 +10804,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9104,6 +10834,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9129,6 +10864,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9154,6 +10894,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9179,6 +10924,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9204,6 +10954,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9229,6 +10984,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -9254,6 +11014,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -9279,6 +11044,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -9304,6 +11074,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9329,6 +11104,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -9354,6 +11134,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -9379,6 +11164,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -9404,6 +11194,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -9429,6 +11224,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -9454,6 +11254,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -9479,6 +11284,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -9504,6 +11314,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -9529,6 +11344,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9554,6 +11374,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -9579,6 +11404,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -9604,6 +11434,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -9629,6 +11464,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -9654,6 +11494,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -9679,6 +11524,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -9704,6 +11554,11 @@
           <t>17</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -9729,6 +11584,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -9754,6 +11614,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -9779,6 +11644,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -9804,6 +11674,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -9829,6 +11704,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -9854,6 +11734,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -9879,6 +11764,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -9904,6 +11794,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -9929,6 +11824,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -9954,6 +11854,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -9979,6 +11884,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -10004,6 +11914,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -10029,6 +11944,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -10054,6 +11974,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -10079,6 +12004,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -10104,6 +12034,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -10129,6 +12064,11 @@
           <t>21</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -10154,6 +12094,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -10179,6 +12124,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -10204,6 +12154,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -10229,6 +12184,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -10254,6 +12214,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -10279,6 +12244,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -10304,6 +12274,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -10329,6 +12304,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -10354,6 +12334,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -10379,6 +12364,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -10404,6 +12394,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -10429,6 +12424,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -10454,6 +12454,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -10479,6 +12484,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -10504,6 +12514,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -10529,6 +12544,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -10554,6 +12574,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -10579,6 +12604,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -10604,6 +12634,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -10629,6 +12664,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -10654,6 +12694,11 @@
           <t>21</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -10679,6 +12724,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -10704,6 +12754,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -10729,6 +12784,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -10754,6 +12814,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -10779,6 +12844,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -10804,6 +12874,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -10829,6 +12904,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -10854,6 +12934,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -10879,6 +12964,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -10904,6 +12994,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -10929,6 +13024,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -10954,6 +13054,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -10979,6 +13084,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -11004,6 +13114,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -11029,6 +13144,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -11054,6 +13174,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -11079,6 +13204,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -11104,6 +13234,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -11129,6 +13264,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -11154,6 +13294,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -11179,6 +13324,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -11204,6 +13354,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -11229,6 +13384,11 @@
           <t>20</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -11254,6 +13414,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -11279,6 +13444,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -11304,6 +13474,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -11329,6 +13504,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -11354,6 +13534,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -11379,6 +13564,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -11404,6 +13594,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -11429,6 +13624,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -11454,6 +13654,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -11479,6 +13684,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -11504,6 +13714,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -11529,6 +13744,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -11554,6 +13774,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -11579,6 +13804,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -11604,6 +13834,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -11629,6 +13864,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -11654,6 +13894,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -11679,6 +13924,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -11704,6 +13954,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -11729,6 +13984,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -11754,6 +14014,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -11779,6 +14044,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -11804,6 +14074,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -11829,6 +14104,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -11854,6 +14134,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -11879,6 +14164,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -11904,6 +14194,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -11929,6 +14224,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -11954,6 +14254,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -11979,6 +14284,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -12004,6 +14314,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -12029,6 +14344,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -12054,6 +14374,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -12079,6 +14404,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -12104,6 +14434,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -12129,6 +14464,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -12154,6 +14494,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -12179,6 +14524,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -12204,6 +14554,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -12229,6 +14584,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -12254,6 +14614,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -12279,6 +14644,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -12304,6 +14674,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -12329,6 +14704,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -12354,6 +14734,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -12379,6 +14764,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -12404,6 +14794,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -12429,6 +14824,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -12454,6 +14854,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -12479,6 +14884,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -12504,6 +14914,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -12529,6 +14944,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -12554,6 +14974,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -12579,6 +15004,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -12604,6 +15034,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -12629,6 +15064,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -12654,6 +15094,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -12679,6 +15124,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -12704,6 +15154,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -12729,6 +15184,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -12754,6 +15214,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -12779,6 +15244,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -12804,6 +15274,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -12829,6 +15304,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -12854,6 +15334,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -12879,6 +15364,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -12904,6 +15394,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -12929,6 +15424,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -12954,6 +15454,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -12979,6 +15484,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -13004,6 +15514,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -13029,6 +15544,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -13054,6 +15574,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -13079,6 +15604,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -13104,6 +15634,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -13129,6 +15664,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -13154,6 +15694,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -13179,6 +15724,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -13204,6 +15754,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -13229,6 +15784,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -13254,6 +15814,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -13279,6 +15844,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -13304,6 +15874,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -13329,6 +15904,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -13354,6 +15934,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -13379,6 +15964,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -13404,6 +15994,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -13429,6 +16024,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -13454,6 +16054,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -13479,6 +16084,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -13504,6 +16114,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -13529,6 +16144,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -13554,6 +16174,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -13571,12 +16196,17 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>난민을 외면하기보다~미국의~하는짓거리가~넘~치졸하다~중국은~인권보다는~희토류에~눈이멀어~사상자가~들끌어도~오로지~탈라반~눈치나보는데~우리~어벙한시끼는~국민의~고민은~외면하고~그넓은~대륙땅은~놔두고~..허허거리는꼴이~국민을~화나게~하는거다~중국은~당장~모두수용하고'~..인권부터~보여줘라~..한국~어벙한시갸~..제발~자국의~안위부터~챙기길~..;;</t>
+          <t>현실적으로 이슬람 종교가 이땅에들어온게한50야년 되었나? 이들의 종교가 알라신에 믿음을 갖어서 죽음도 두려워 하지 않고 자살공격등 과격한 행동을해왔고 오레전에 기독교 국가들과 종교전쟁을 100여년간 했었던 역사도있다 같은 이슬람권인 파키스탄이나 방글라데시에 철조망치고 천막치고임시 주거대책잘하더니 주한 미군시설에 수용하고 미군은 손털고 철수하고 이들 아프칸 난민들 용병으로 훈련 시켜서  북한중국 아프칸에파병하려 하는가?인도적으로 난민들 수용이 정의 이지만 종교적 갈등이 존재하는구나?왜 우리나라가 관련돼어 나중에 사회적 문제는?</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13596,12 +16226,17 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>현실적으로 이슬람 종교가 이땅에들어온게한50야년 되었나? 이들의 종교가 알라신에 믿음을 갖어서 죽음도 두려워 하지 않고 자살공격등 과격한 행동을해왔고 오레전에 기독교 국가들과 종교전쟁을 100여년간 했었던 역사도있다 같은 이슬람권인 파키스탄이나 방글라데시에 철조망치고 천막치고임시 주거대책잘하더니 주한 미군시설에 수용하고 미군은 손털고 철수하고 이들 아프칸 난민들 용병으로 훈련 시켜서  북한중국 아프칸에파병하려 하는가?인도적으로 난민들 수용이 정의 이지만 종교적 갈등이 존재하는구나?왜 우리나라가 관련돼어 나중에 사회적 문제는?</t>
+          <t>미친 개소리 그만해라우리도 힘들다 코로나에 경제 만신창이 거기다 난민까지 받으라고?</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13621,12 +16256,17 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>미친 개소리 그만해라우리도 힘들다 코로나에 경제 만신창이 거기다 난민까지 받으라고?</t>
+          <t>80년 전까지만 해도 나라가 없어 전세계 흩어진 조상들 생각은 안 하고 오로지 혐오 하나로 애국으로 포장하는 덜 떨어진 것들이 이 나라 주인이라고 깝치니 나라가 제대로 돌아가겠냐? 아니 미국 하면 환장하는 것들도 많더만 자기와 연관되거나 인도적인 차원에서 가급적 난민 수용하는 미국은 싫은가 보다? 머절이들 ㅉㅉ</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13646,12 +16286,17 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>80년 전까지만 해도 나라가 없어 전세계 흩어진 조상들 생각은 안 하고 오로지 혐오 하나로 애국으로 포장하는 덜 떨어진 것들이 이 나라 주인이라고 깝치니 나라가 제대로 돌아가겠냐? 아니 미국 하면 환장하는 것들도 많더만 자기와 연관되거나 인도적인 차원에서 가급적 난민 수용하는 미국은 싫은가 보다? 머절이들 ㅉㅉ</t>
+          <t>가정교육을 운운하기에는 무리가 있지 여자를 함부로 하는 문화라 한국정서와는 안맞지 솔직히 저녁에 길가다 이슬람권 남자들 뭉쳐있으면 안무서워할 한국인이 있을까?</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13671,12 +16316,17 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>가정교육을 운운하기에는 무리가 있지 여자를 함부로 하는 문화라 한국정서와는 안맞지 솔직히 저녁에 길가다 이슬람권 남자들 뭉쳐있으면 안무서워할 한국인이 있을까?</t>
+          <t>환대까지는 아니더라도 인권보호차원에서 도와야 한다.미얀마는 돕자면서 아프칸은 왜?</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -13696,12 +16346,17 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>환대까지는 아니더라도 인권보호차원에서 도와야 한다.미얀마는 돕자면서 아프칸은 왜?</t>
+          <t>능력도, 여건도 안되면서 어줍잖은 박애주의 내세우다 내 자식세대 골로 갑니다. 진짜 정신들 차리시오.</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13721,12 +16376,17 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>능력도, 여건도 안되면서 어줍잖은 박애주의 내세우다 내 자식세대 골로 갑니다. 진짜 정신들 차리시오.</t>
+          <t>이슬람사람들 반대다!!!</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13746,10 +16406,15 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>이슬람사람들 반대다!!!</t>
+          <t>아니 미군은 책임도 못질거 왜데리고 나온겨? 그냥 지들 종교니까 지들끼리 지지고 볶든 알아서 하는거지</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -13771,10 +16436,15 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>아니 미군은 책임도 못질거 왜데리고 나온겨? 그냥 지들 종교니까 지들끼리 지지고 볶든 알아서 하는거지</t>
+          <t>이슬람교인들은 대한민국에서 절대 수용불가하다. 대한민국에서 떠나라</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -13796,10 +16466,15 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>이슬람교인들은 대한민국에서 절대 수용불가하다. 대한민국에서 떠나라</t>
+          <t>장혜영이랑 정의당것들 진중권이는 ㄴㅓ네집에 다들여라</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -13821,12 +16496,17 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>장혜영이랑 정의당것들 진중권이는 ㄴㅓ네집에 다들여라</t>
+          <t>쟤들 들어오면 국내에도 테러 발생 가능성 높아진다</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13846,12 +16526,17 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>쟤들 들어오면 국내에도 테러 발생 가능성 높아진다</t>
+          <t>순진국 맞냐? 주도적으로 받지는 못할망정. 미군기지 수용도 못한다고? ㅉㅉ 겁나 이중적인 인권의식.</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -13871,12 +16556,17 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>순진국 맞냐? 주도적으로 받지는 못할망정. 미군기지 수용도 못한다고? ㅉㅉ 겁나 이중적인 인권의식.</t>
+          <t>종교관계로한국에오면큰재앙됨</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13896,12 +16586,17 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>종교관계로한국에오면큰재앙됨</t>
+          <t>제발 이스람은오지마라우리나라국민도 살기힘들어 자살1위인데</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13921,12 +16616,17 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>제발 이스람은오지마라우리나라국민도 살기힘들어 자살1위인데</t>
+          <t>찬성하는분들  집으로 몆명씩 보내주세요</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13946,12 +16646,17 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>찬성하는분들  집으로 몆명씩 보내주세요</t>
+          <t>아프간 경찰부터 소년들 가둬놓고 강간 했다.미군이 따지자 그럼 경찰들이 소년이랑 XX하지 않으면? 할매랑XX 하란 소리냐 며 따지고 들었다. 이런 족속들을 난민이라고 받아 들이자고??</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13971,12 +16676,17 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>아프간 경찰부터 소년들 가둬놓고 강간 했다.미군이 따지자 그럼 경찰들이 소년이랑 XX하지 않으면? 할매랑XX 하란 소리냐 며 따지고 들었다. 이런 족속들을 난민이라고 받아 들이자고??</t>
+          <t>그사람들 미군기지받아주면 텔레반이 우리공격함 어쩔거임</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13996,12 +16706,17 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>그사람들 미군기지받아주면 텔레반이 우리공격함 어쩔거임</t>
+          <t>바이든이 노망이 들었구만ㅡ이슬람은 오지마라ㅡ</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14021,12 +16736,17 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>바이든이 노망이 들었구만ㅡ이슬람은 오지마라ㅡ</t>
+          <t>정우성 진중권 정의당 무리들 집에서 먼저 받고 하자.</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14046,12 +16766,17 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>정우성 진중권 정의당 무리들 집에서 먼저 받고 하자.</t>
+          <t>안타깝지만 우리가 들일 여건이 없다.</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14071,12 +16796,17 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>안타깝지만 우리가 들일 여건이 없다.</t>
+          <t>어서 오세요!!</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14096,10 +16826,15 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>어서 오세요!!</t>
+          <t>만만한게 우리나라가?진짜 반대다 넓은 미국땅으로 보내라 좁아터진 땅덩어리 우리살기도 부족하다</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -14121,12 +16856,17 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>만만한게 우리나라가?진짜 반대다 넓은 미국땅으로 보내라 좁아터진 땅덩어리 우리살기도 부족하다</t>
+          <t>정우성씨네 집으로 고고</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14146,12 +16886,17 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>정우성씨네 집으로 고고</t>
+          <t>너희나라에수용해라 씁</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14171,12 +16916,17 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>너희나라에수용해라 씁</t>
+          <t>정우성 좋아하겠다</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14196,10 +16946,15 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>정우성 좋아하겠다</t>
+          <t>수용할꺼면 미군주둔비 삭감시키든 수용비용미국한테 받아내든해라</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -14221,10 +16976,15 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>수용할꺼면 미군주둔비 삭감시키든 수용비용미국한테 받아내든해라</t>
+          <t>땡! 가장 배타적인 종교는 우리나라 개신교입니다.</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -14246,10 +17006,15 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>땡! 가장 배타적인 종교는 우리나라 개신교입니다.</t>
+          <t>정의당을 아프칸으로</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -14271,12 +17036,17 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>정의당을 아프칸으로</t>
+          <t>우리나라 불쌍한 사람부터 잘 도아주고 받던가말도 안되는 말을하노 느그집에 거지 1명만 대려가도 나가 할분들이</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14296,12 +17066,17 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>우리나라 불쌍한 사람부터 잘 도아주고 받던가말도 안되는 말을하노 느그집에 거지 1명만 대려가도 나가 할분들이</t>
+          <t>중권아 일단 니 집에 10명 보넬게. 잘 케어해라.</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14321,12 +17096,17 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>중권아 일단 니 집에 10명 보넬게. 잘 케어해라.</t>
+          <t>열나게 싸우다가 심각해서 돌아오는것도 아니고 저 나라는 뭐 대통령포함 온국민이 그냥 나라 버리고 가네 ㅠㅜ 그러면서 딴나라가서 그나라법 안따를테고</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14346,12 +17126,17 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>열나게 싸우다가 심각해서 돌아오는것도 아니고 저 나라는 뭐 대통령포함 온국민이 그냥 나라 버리고 가네 ㅠㅜ 그러면서 딴나라가서 그나라법 안따를테고</t>
+          <t>미국의 갑질 더넓은 미국땅에 정착시키길왜 미국의 뒷처리를  우리에게 맡기나</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14371,12 +17156,17 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>미국의 갑질 더넓은 미국땅에 정착시키길왜 미국의 뒷처리를  우리에게 맡기나</t>
+          <t>받지마라 안스럽지만 코로사 확 늘어난다</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14396,10 +17186,15 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>받지마라 안스럽지만 코로사 확 늘어난다</t>
+          <t>진씨 당신집에 난민 꼭 받어라.그리고 난민으로인한 범죄발생시 당신이 책임져라.인도주의적으로 알겠지?</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -14421,12 +17216,17 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>진씨 당신집에 난민 꼭 받어라.그리고 난민으로인한 범죄발생시 당신이 책임져라.인도주의적으로 알겠지?</t>
+          <t>정우성 말좀 해보시오. 어떻게 해야하는지.</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14446,12 +17246,17 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>정우성 말좀 해보시오. 어떻게 해야하는지.</t>
+          <t>아이들과여성만 받아라</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14471,10 +17276,15 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>아이들과여성만 받아라</t>
+          <t>아프가니스탄 수니파 이슬람으로 알고 있는데  같은 수니파  이슬람국가들이 챙겨야 겠지요. 특히맹주국 사우디를 필두로  말레이시아, 이집트등.   아무리 한국이  수십년전에 도움을 받았을지언정,  저들은 자유를 향한 최소한의 저항도 안하고 도망친 민족인데  의무적으로 받아줄  필요는 없다보고  인도적인차원으로  의,식정도만  지원해주면될듯합니다.</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -14496,12 +17306,17 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>아프가니스탄 수니파 이슬람으로 알고 있는데  같은 수니파  이슬람국가들이 챙겨야 겠지요. 특히맹주국 사우디를 필두로  말레이시아, 이집트등.   아무리 한국이  수십년전에 도움을 받았을지언정,  저들은 자유를 향한 최소한의 저항도 안하고 도망친 민족인데  의무적으로 받아줄  필요는 없다보고  인도적인차원으로  의,식정도만  지원해주면될듯합니다.</t>
+          <t>절대 반대!!!!! 국내에 있는 사람들도 지금 쫓아낼 판이다</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14521,12 +17336,17 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>절대 반대!!!!! 국내에 있는 사람들도 지금 쫓아낼 판이다</t>
+          <t>지들이 싸질러놓고 남한테 떠넘긴다??  미국 땅도 넓으니 모든 주에 다 받고 생각해라</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14546,12 +17366,17 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>지들이 싸질러놓고 남한테 떠넘긴다??  미국 땅도 넓으니 모든 주에 다 받고 생각해라</t>
+          <t>이렇게 경제가 힘든 시기에  울 나라 접한 국경도 아니고  단호히 거절한다.</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14571,12 +17396,17 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>이렇게 경제가 힘든 시기에  울 나라 접한 국경도 아니고  단호히 거절한다.</t>
+          <t>똥싼 놈 따로 있고 치우는 놈 따로 있냐? 적어도 치우는 놈 의사는 물어는 봐야지. 치우는 놈은 노옌가</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14596,12 +17426,17 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>똥싼 놈 따로 있고 치우는 놈 따로 있냐? 적어도 치우는 놈 의사는 물어는 봐야지. 치우는 놈은 노옌가</t>
+          <t>절대적으로 반대합니다</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14621,10 +17456,15 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>절대적으로 반대합니다</t>
+          <t>정우성 집에 받아주면 되겠네</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -14646,12 +17486,17 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>정우성 집에 받아주면 되겠네</t>
+          <t>저 난민들 중에 테러리스트가 있을수도 있는데 받자고 하는건 국민의 안전따윈 생각도 안한다는거지</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14671,12 +17516,17 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>저 난민들 중에 테러리스트가 있을수도 있는데 받자고 하는건 국민의 안전따윈 생각도 안한다는거지</t>
+          <t>미.........Chin 넘들이네  지나라 포기하고 도망간 넘들을 난민으로 받자고?  ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ나라 포기한 넘들에게 더이상 혜택은 사치다~~~~~~사하라 사막에다가  텐트 하나 쳐주고  거기서 살라고 해라~~~~~~~~~이넘들 받아들이면  여기서 돈벌어  탈레반 하고 싸운다고 송금하고  탈레반이 복수하러 대한민국와서 테러 한다~~~~~~~~받는다고 하는 넘들 제정신이 아니구만  이런 사람은 아프간으로 보내자~~~~~~탈레반하고 같이 놀게~  ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14696,12 +17546,17 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>미.........Chin 넘들이네  지나라 포기하고 도망간 넘들을 난민으로 받자고?  ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ나라 포기한 넘들에게 더이상 혜택은 사치다~~~~~~사하라 사막에다가  텐트 하나 쳐주고  거기서 살라고 해라~~~~~~~~~이넘들 받아들이면  여기서 돈벌어  탈레반 하고 싸운다고 송금하고  탈레반이 복수하러 대한민국와서 테러 한다~~~~~~~~받는다고 하는 넘들 제정신이 아니구만  이런 사람은 아프간으로 보내자~~~~~~탈레반하고 같이 놀게~  ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>진씨 당신 분명 당신 주둥이로 쉐어하겟다고 했어?캡쳐 다뜨고 기사도 났으니 본인적은글 약속 꼭지켜라.</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14721,12 +17576,17 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>진씨 당신 분명 당신 주둥이로 쉐어하겟다고 했어?캡쳐 다뜨고 기사도 났으니 본인적은글 약속 꼭지켜라.</t>
+          <t>미래 후손들에게 위협이된다 난민 절대절대 받으면 안된다 같은 이슬람 문화권으로 가는게 그들에게도 좋을거다 종교신념 가벼운 문제아니다.일본처럼 난민기금내자 히잡쓰고 돌아다니는 꼬라지만 봐도 숨막힌다.</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14746,12 +17606,17 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>미래 후손들에게 위협이된다 난민 절대절대 받으면 안된다 같은 이슬람 문화권으로 가는게 그들에게도 좋을거다 종교신념 가벼운 문제아니다.일본처럼 난민기금내자 히잡쓰고 돌아다니는 꼬라지만 봐도 숨막힌다.</t>
+          <t>종교 갈등에 의한 난민은 사회문제로 번질 가능성이 높다. 같은 종교 국가로 가는것이 서로에게 좋을 것이다.</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14771,12 +17636,17 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>종교 갈등에 의한 난민은 사회문제로 번질 가능성이 높다. 같은 종교 국가로 가는것이 서로에게 좋을 것이다.</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14796,12 +17666,17 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>이슬람 반대합니다  같은 이슬람 같은종파 나라에 보내세요  우리나라에 더 이상 이슬람사원 건설도 반대합니다 조선족도 뿌리내리려하는데 이슬람까지? 반대합니다</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14821,12 +17696,17 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>이슬람 반대합니다  같은 이슬람 같은종파 나라에 보내세요  우리나라에 더 이상 이슬람사원 건설도 반대합니다 조선족도 뿌리내리려하는데 이슬람까지? 반대합니다</t>
+          <t>난민보다종교가더문제</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14846,12 +17726,17 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>난민보다종교가더문제</t>
+          <t>미군철거를 외치는 좌익들이 미국의 결정에 순응한다... 넌센스네</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14871,12 +17756,17 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>미군철거를 외치는 좌익들이 미국의 결정에 순응한다... 넌센스네</t>
+          <t>기지에? 영원히 기지에 살건가? 대한민국이스탄 된다.</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14896,12 +17786,17 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>기지에? 영원히 기지에 살건가? 대한민국이스탄 된다.</t>
+          <t>절대안되결사반되 아프칸이슬람 절대우리땅에못들어와 우리살땅도좁아 이것만은안된다 이런일나면 코로나고나불이고 데모나간다</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14921,12 +17816,17 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>절대안되결사반되 아프칸이슬람 절대우리땅에못들어와 우리살땅도좁아 이것만은안된다 이런일나면 코로나고나불이고 데모나간다</t>
+          <t>환대할건 또 뭐고</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14946,12 +17846,17 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>환대할건 또 뭐고</t>
+          <t>잘 생각해보세요.한겨레같은 어용언론들이 평소엔 난민 뉴스에 호의적이었는데 왜 오늘 아프간 난민 미군기지 수용 건으로 선동질할까요?</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14971,10 +17876,15 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>잘 생각해보세요.한겨레같은 어용언론들이 평소엔 난민 뉴스에 호의적이었는데 왜 오늘 아프간 난민 미군기지 수용 건으로 선동질할까요?</t>
+          <t>어차피 일본따라하게 되있어..일본이하면 어쩔수없이 할테고..일본이 안하면 일본핑계대고 안할테고..</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -14996,12 +17906,17 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>어차피 일본따라하게 되있어..일본이하면 어쩔수없이 할테고..일본이 안하면 일본핑계대고 안할테고..</t>
+          <t>미군 기지는 미국 땅인데 주한미군 주둔하라고 있는 곳에 수용하는데 왜 한국인들이 난리?</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -15021,12 +17936,17 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>미군 기지는 미국 땅인데 주한미군 주둔하라고 있는 곳에 수용하는데 왜 한국인들이 난리?</t>
+          <t>이슬람은 우리 사회를 잠식시킬것같다 중궈런과 함께</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15046,10 +17966,15 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>이슬람은 우리 사회를 잠식시킬것같다 중궈런과 함께</t>
+          <t>그럼 늘 해왔듯이 우린 이미 북한 난민(탈북민) 받고 있다고 거절해야지.. 이럴땐 북한이 있어서 편함</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -15071,12 +17996,17 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>그럼 늘 해왔듯이 우린 이미 북한 난민(탈북민) 받고 있다고 거절해야지.. 이럴땐 북한이 있어서 편함</t>
+          <t>찬성하는것들 이슬람이 어떤지 모르고 저딴 소리하나?</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15096,12 +18026,17 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>찬성하는것들 이슬람이 어떤지 모르고 저딴 소리하나?</t>
+          <t>진중권 정우성집으로 일단 10명씩 받으시죠~^^</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15121,12 +18056,17 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>진중권 정우성집으로 일단 10명씩 받으시죠~^^</t>
+          <t>위로는 김돼지 여긴 문죄인 이슬람?  골때리네</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15146,10 +18086,15 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>위로는 김돼지 여긴 문죄인 이슬람?  골때리네</t>
+          <t>정은이에게 물어보구 판단하세요..</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15171,10 +18116,15 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>정은이에게 물어보구 판단하세요..</t>
+          <t>차라리 미얀마 난민을 받자..근데 미얀마는 난민이 없네? 그러니 이문제는 아프간 국민의 국민성문제인거임 쩝 도망친다고 해결되는게 아니라면 인구를 빼내주는게 도움을 주는게 아니지..</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15196,12 +18146,17 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>차라리 미얀마 난민을 받자..근데 미얀마는 난민이 없네? 그러니 이문제는 아프간 국민의 국민성문제인거임 쩝 도망친다고 해결되는게 아니라면 인구를 빼내주는게 도움을 주는게 아니지..</t>
+          <t>반디ㅢ합니다</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15221,12 +18176,17 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>반디ㅢ합니다</t>
+          <t>절대 반대! 종교는 치료불가다. 그중에 이슬람은 불치임. 얼굴도 종교도 관습도 문화도 하나도 맞는게 없다. No welcome.</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15246,12 +18206,17 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>절대 반대! 종교는 치료불가다. 그중에 이슬람은 불치임. 얼굴도 종교도 관습도 문화도 하나도 맞는게 없다. No welcome.</t>
+          <t>그나라의 문화에 순응해서 살 난민이라면 전혀 반대할 이유가 없죠 이슬람은 머릿수 늘어나면 점점 기도실 내놔라 할랄음식내놔라 갑질하기 시작하다가 결국 그 나라 체제 전복을 시도하는 가증한 것들이니 받아줄수가 없죠 그 어떤 가장이 순한척 숨어들어오는 강도를 환영하나요</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15271,12 +18236,17 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>그나라의 문화에 순응해서 살 난민이라면 전혀 반대할 이유가 없죠 이슬람은 머릿수 늘어나면 점점 기도실 내놔라 할랄음식내놔라 갑질하기 시작하다가 결국 그 나라 체제 전복을 시도하는 가증한 것들이니 받아줄수가 없죠 그 어떤 가장이 순한척 숨어들어오는 강도를 환영하나요</t>
+          <t>절대반대</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15296,12 +18266,17 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>절대반대</t>
+          <t>인성 좋은 진중권집에 라만단의 성지를  이슬람 사원  만들자...!!</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15321,10 +18296,15 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>인성 좋은 진중권집에 라만단의 성지를  이슬람 사원  만들자...!!</t>
+          <t>이슬람쪽난민이라면반대다.저들이어떤지지금보고도모르냐?우리아이들을위해서는이기적이라해도어쩔수없다</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15346,10 +18326,15 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>이슬람쪽난민이라면반대다.저들이어떤지지금보고도모르냐?우리아이들을위해서는이기적이라해도어쩔수없다</t>
+          <t>그러시면 우리나라로 난민입국 찬성하시는 가정에 한분씩 위탁맏기시는 방안검토 해야합니다  주둥아리로만 양심가인척하는 위선자들 역겨워</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -15371,12 +18356,17 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>그러시면 우리나라로 난민입국 찬성하시는 가정에 한분씩 위탁맏기시는 방안검토 해야합니다  주둥아리로만 양심가인척하는 위선자들 역겨워</t>
+          <t>마호메트와 알라신이 이걸보면 뭐라 생각할지 궁금해진다. 코란에 이웃에게 피해를 줘라,사람을 함부로 죽이라는 내용은 없거늘!</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15396,10 +18386,15 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>마호메트와 알라신이 이걸보면 뭐라 생각할지 궁금해진다. 코란에 이웃에게 피해를 줘라,사람을 함부로 죽이라는 내용은 없거늘!</t>
+          <t>자칭 보수라는것들아. 미국이 결정하는대로 대가리박아</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15421,10 +18416,15 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>자칭 보수라는것들아. 미국이 결정하는대로 대가리박아</t>
+          <t>인간쓰레기를  왜밭아  어디한곳도  써먹을곳도 없는애들</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15446,12 +18446,17 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>인간쓰레기를  왜밭아  어디한곳도  써먹을곳도 없는애들</t>
+          <t>반대 합니다</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15471,12 +18476,17 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>반대 합니다</t>
+          <t>그르게 그넖은 미국땅에 둬도 되겠는데 왜좁고 힘든나라들에게 패를끼치나 누가 난민들 데리고 오래?? 그럼 주한미군기지안에 두고 미국늠들이 관리하면 되겠네 거기서 나오면 추방하고</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15496,12 +18506,17 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>그르게 그넖은 미국땅에 둬도 되겠는데 왜좁고 힘든나라들에게 패를끼치나 누가 난민들 데리고 오래?? 그럼 주한미군기지안에 두고 미국늠들이 관리하면 되겠네 거기서 나오면 추방하고</t>
+          <t>아프간에서 우리나라에 와 있는 젊은 아프간 남자들 다 아프간으로 돌려보내라.지들 나라를 위해 싸워야지,대한민국에 이슬람 뿌리는간 절대 안된다.</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15521,12 +18536,17 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>아프간에서 우리나라에 와 있는 젊은 아프간 남자들 다 아프간으로 돌려보내라.지들 나라를 위해 싸워야지,대한민국에 이슬람 뿌리는간 절대 안된다.</t>
+          <t>종교는 창조주의 뜻으로 통일 되어야 합니다 성경보다 창조주의 뜻이 잘 약속된 책이 없습니다 계기륙에는 봉해진 계시록을 가르쳐주실 목자가 약속되어 있습니디 신천지예수교는 어떻게 잘가르쳐주는지 확인해 봐야 합니다</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15546,12 +18566,17 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>종교는 창조주의 뜻으로 통일 되어야 합니다 성경보다 창조주의 뜻이 잘 약속된 책이 없습니다 계기륙에는 봉해진 계시록을 가르쳐주실 목자가 약속되어 있습니디 신천지예수교는 어떻게 잘가르쳐주는지 확인해 봐야 합니다</t>
+          <t>막아야한다나 내아이 우리가족을 위해서</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15571,12 +18596,17 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>막아야한다나 내아이 우리가족을 위해서</t>
+          <t>유럽 특히 독일의 이슬람 난민 봤지?? 지들이 받아준 국가에 동화되려고 하는게 아니라 그 국가가 지들에게 최적화 되도록 전부 바뀌라고 우기는 애들이야...</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15596,12 +18626,17 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>유럽 특히 독일의 이슬람 난민 봤지?? 지들이 받아준 국가에 동화되려고 하는게 아니라 그 국가가 지들에게 최적화 되도록 전부 바뀌라고 우기는 애들이야...</t>
+          <t>받아들이고.수용하자.갈곳없는사람들이다.얼마나 고통스러운 삶이었을까.자유와 따뜻함으로베풀자.북보다 천배낫다</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -15621,10 +18656,15 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>받아들이고.수용하자.갈곳없는사람들이다.얼마나 고통스러운 삶이었을까.자유와 따뜻함으로베풀자.북보다 천배낫다</t>
+          <t>한국은 커자흐스탄과 돈독한 관계를 유지하시오.</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -15646,12 +18686,17 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>한국은 커자흐스탄과 돈독한 관계를 유지하시오.</t>
+          <t>이슬람 절대 반대!본국으로 돌려 보내라</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15671,12 +18716,17 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>이슬람 절대 반대!본국으로 돌려 보내라</t>
+          <t>차라리 미군들 다 철수시켜라</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15696,12 +18746,17 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>차라리 미군들 다 철수시켜라</t>
+          <t>받아주자! 필사의 탈출을 하는 모습을 보라! 그들은 남아있으면 어찌 될지 모른다. 종교를 떠나 인간애로 도와주자!</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -15721,12 +18776,17 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>받아주자! 필사의 탈출을 하는 모습을 보라! 그들은 남아있으면 어찌 될지 모른다. 종교를 떠나 인간애로 도와주자!</t>
+          <t>정우성 배우님 배우님 집에서 난민수용 하세요 . 말과행동이  같다는걸 실천하셔야죠</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15746,12 +18806,17 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>정우성 배우님 배우님 집에서 난민수용 하세요 . 말과행동이  같다는걸 실천하셔야죠</t>
+          <t>문재인 지지자들 집으로 다 집어넣자</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15771,12 +18836,17 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>문재인 지지자들 집으로 다 집어넣자</t>
+          <t>정우성씨 집으로  가면 됩니다..</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15796,12 +18866,17 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>정우성씨 집으로  가면 됩니다..</t>
+          <t>반대하는 놈들이  정말  갑질  하는거  아닐가요 6.25때  우리  나라  피난민들도  해외로  가지  않았나요  어떤  나라가  받아  줬으니깐  간거겠죠</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -15821,12 +18896,17 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>반대하는 놈들이  정말  갑질  하는거  아닐가요 6.25때  우리  나라  피난민들도  해외로  가지  않았나요  어떤  나라가  받아  줬으니깐  간거겠죠</t>
+          <t>독일 프랑스 영국 서유럽 선진국들도 이슬람계 난민이나 이주민들 많지 거기도 자국인들의 결혼과 자녀기피 때문에 그렇게 된거여 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15846,12 +18926,17 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>독일 프랑스 영국 서유럽 선진국들도 이슬람계 난민이나 이주민들 많지 거기도 자국인들의 결혼과 자녀기피 때문에 그렇게 된거여 ㅋㅋㅋ</t>
+          <t>안돼~자국민이나 도와라.난민 도울 생각말고!!!</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15871,12 +18956,17 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>안돼~자국민이나 도와라.난민 도울 생각말고!!!</t>
+          <t>국민의견 물어봐야하는거 아닌가...왜 니들이 판단하는데..국회의원들한테나 정치인들에게 그런 권리 준 적 없다...니들만의 나라냐</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15896,12 +18986,17 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>국민의견 물어봐야하는거 아닌가...왜 니들이 판단하는데..국회의원들한테나 정치인들에게 그런 권리 준 적 없다...니들만의 나라냐</t>
+          <t>어차피 이상한나란대 받으면 어때ㅋㅋ난민들이 피해주는거보다 정치인들이 더큰피해주는데정치인들이나 쫓아내고 받자말자 소릴해야지난민보다 더한 정치인들 받아줘놓고 난민은 왜안된다는거야?</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15921,12 +19016,17 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>어차피 이상한나란대 받으면 어때ㅋㅋ난민들이 피해주는거보다 정치인들이 더큰피해주는데정치인들이나 쫓아내고 받자말자 소릴해야지난민보다 더한 정치인들 받아줘놓고 난민은 왜안된다는거야?</t>
+          <t>진중권씨가 다 받아주신답니다. 걱정 없고 든든하네요 화이팅!!!</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15946,12 +19046,17 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>진중권씨가 다 받아주신답니다. 걱정 없고 든든하네요 화이팅!!!</t>
+          <t>나라를버리고 온것들이다..절대 받으면 안됨..그리고  대한민국을 이슬람화 시킬것임..</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15971,12 +19076,17 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>나라를버리고 온것들이다..절대 받으면 안됨..그리고  대한민국을 이슬람화 시킬것임..</t>
+          <t>환대? 한대 쳐 맞고싶나? 문죄인이 작작해라 진짜</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15996,12 +19106,17 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>환대? 한대 쳐 맞고싶나? 문죄인이 작작해라 진짜</t>
+          <t>살자고  나온 사람입니다   받아주세요...</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -16021,12 +19136,17 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>살자고  나온 사람입니다   받아주세요...</t>
+          <t>ㅈㄴ 미친 ㄴ들이네. 여기 후진국이야. 무슨 수준은 후진국인데  선진국들 하는거 다 따라하고 있네.야 대한민국 정치나 똑바로해.</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16046,12 +19166,17 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>ㅈㄴ 미친 ㄴ들이네. 여기 후진국이야. 무슨 수준은 후진국인데  선진국들 하는거 다 따라하고 있네.야 대한민국 정치나 똑바로해.</t>
+          <t>인권대통인데? 허락받아야 할사람에게 우선 물어보구 쩝쩝~~~..함부로 얘기했다간 무슨꾸중들을려구?무언가 잡혀도 단단히 잡힌듯...</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16071,10 +19196,15 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>인권대통인데? 허락받아야 할사람에게 우선 물어보구 쩝쩝~~~..함부로 얘기했다간 무슨꾸중들을려구?무언가 잡혀도 단단히 잡힌듯...</t>
+          <t>ㅎㅎ 갑론을박 할 거 없다 양키가 까라면 까는 게 현실이다</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16096,10 +19226,15 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>ㅎㅎ 갑론을박 할 거 없다 양키가 까라면 까는 게 현실이다</t>
+          <t>ㅡ헛소리하지마. 난민수용을 하긴해야되지만, 수천배 넓은 미국내 미군 기지들에 해야지 왜 우리나라땅에 끌고오냐고.</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -16121,12 +19256,17 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>ㅡ헛소리하지마. 난민수용을 하긴해야되지만, 수천배 넓은 미국내 미군 기지들에 해야지 왜 우리나라땅에 끌고오냐고.</t>
+          <t>야 차라리 군사훈련 시키고 다시 돌려보내는게 더 이득이겠다. 받지마;</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16146,10 +19286,15 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>야 차라리 군사훈련 시키고 다시 돌려보내는게 더 이득이겠다. 받지마;</t>
+          <t>받아주면  머지않아  밖에서  사고 쳐서 뉴스 나온다 분명</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16171,12 +19316,17 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>받아주면  머지않아  밖에서  사고 쳐서 뉴스 나온다 분명</t>
+          <t>정우성씨는 이럴땐 참 조용해 ㅋ</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16196,12 +19346,17 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>정우성씨는 이럴땐 참 조용해 ㅋ</t>
+          <t>그들의 종교가 가혹하고 무서워요</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16221,12 +19376,17 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>그들의 종교가 가혹하고 무서워요</t>
+          <t>북한도 인구절벽으로 고민하다 아이둘 이상 안낳으면 공산당증 뺏는다고 해서 인구늘렸는데 한국은 아이 한명도 안낳는데 난민이나 이주민 적극적으로 받아야지 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16246,10 +19406,15 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>북한도 인구절벽으로 고민하다 아이둘 이상 안낳으면 공산당증 뺏는다고 해서 인구늘렸는데 한국은 아이 한명도 안낳는데 난민이나 이주민 적극적으로 받아야지 ㅋㅋㅋ</t>
+          <t>미친미국놈들믿지마라지들이익만찾는개들이다</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16271,10 +19436,15 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>미친미국놈들믿지마라지들이익만찾는개들이다</t>
+          <t>이슬람을 믿는 난민이기에 국민들의 걱정이 큰 것 같습니다. 얼마 안되는 무슬림을 위해 이슬람 사원을 짓고 있는 것도 걱정인데, 더 많은 무슬림이 들어온다니.. 유럽처럼 될까봐 걱정이네요 ㅠㅠ</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -16296,12 +19466,17 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>이슬람을 믿는 난민이기에 국민들의 걱정이 큰 것 같습니다. 얼마 안되는 무슬림을 위해 이슬람 사원을 짓고 있는 것도 걱정인데, 더 많은 무슬림이 들어온다니.. 유럽처럼 될까봐 걱정이네요 ㅠㅠ</t>
+          <t>김일성.김정일.김정은.문재앙 사진걸어놓코 신봉하는 대깨문들 집구석에 난민이주 한가족씩 분양하면 되겠내.</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16321,12 +19496,17 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>김일성.김정일.김정은.문재앙 사진걸어놓코 신봉하는 대깨문들 집구석에 난민이주 한가족씩 분양하면 되겠내.</t>
+          <t>매주 서울역 기독교vs 이슬람 개꿀잼 매치각</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16346,10 +19526,15 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>매주 서울역 기독교vs 이슬람 개꿀잼 매치각</t>
+          <t>코로나 땜에 경기주고 또? 난민</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16371,10 +19556,15 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>코로나 땜에 경기주고 또? 난민</t>
+          <t>절대안된다 무조건 반대 일본처럼 돈을내라</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16396,12 +19586,17 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>절대안된다 무조건 반대 일본처럼 돈을내라</t>
+          <t>중국이 지들입으로 대국이라며 인구줄어든다고 출산장려하던데 땅도크고 중국이 다 받아주면 되겠네 일본도 좀 나눠주고 무슬림월드</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16421,12 +19616,17 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>중국이 지들입으로 대국이라며 인구줄어든다고 출산장려하던데 땅도크고 중국이 다 받아주면 되겠네 일본도 좀 나눠주고 무슬림월드</t>
+          <t>이시국에?</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16446,12 +19646,17 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>이시국에?</t>
+          <t>인구도 주는데 받아주자    때개문 보다 지적수준은 높을 것이다</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -16471,12 +19676,17 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>인구도 주는데 받아주자    때개문 보다 지적수준은 높을 것이다</t>
+          <t>한국은 좁으니 일본으로 보냅시다 물론 일본 생각은 궁금하지도않고 알아서 잘 살도록 합시다</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16496,12 +19706,17 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>한국은 좁으니 일본으로 보냅시다 물론 일본 생각은 궁금하지도않고 알아서 잘 살도록 합시다</t>
+          <t>받아주어야지. 죄인이 틈만나면 인권인권했잖아.진정 대깨문들이면 자기 집이라도 내주어야지</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16521,12 +19736,17 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>받아주어야지. 죄인이 틈만나면 인권인권했잖아.진정 대깨문들이면 자기 집이라도 내주어야지</t>
+          <t>미군기지는  미국땅이라고 인정하는거네ᆢ미군기지에 수용하는거  찬성하는  작자들은 ᆢ이거  뭐  이런  이완용같은  사람들이  있어ᆢ수용하고 나중에  우리보고 바ㄷ아들이고  이땅에서  살게하라고 히것지  님기리ᆢ</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16546,12 +19766,17 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>미군기지는  미국땅이라고 인정하는거네ᆢ미군기지에 수용하는거  찬성하는  작자들은 ᆢ이거  뭐  이런  이완용같은  사람들이  있어ᆢ수용하고 나중에  우리보고 바ㄷ아들이고  이땅에서  살게하라고 히것지  님기리ᆢ</t>
+          <t>다른나라 미군기지 운운하지 말고 미국으로 다 데려가라!!!</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16571,12 +19796,17 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>다른나라 미군기지 운운하지 말고 미국으로 다 데려가라!!!</t>
+          <t>중국 미국 그 넓은 땅에 난민촌 만들어라</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16596,10 +19826,15 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>중국 미국 그 넓은 땅에 난민촌 만들어라</t>
+          <t>뭐라? 미국이 한국에 난민 덤터기 씌우려고? 절대불가! 만에하나 글로벌호구 이 정권이 허가한다면 광화문에 횃불을 보게될것이다! 경고한다. 대선 곧 다가온다!</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -16616,17 +19851,22 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>2021.08.22. 14:51</t>
+          <t>2021.09.26. 22:22</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>뭐라? 미국이 한국에 난민 덤터기 씌우려고? 절대불가! 만에하나 글로벌호구 이 정권이 허가한다면 광화문에 횃불을 보게될것이다! 경고한다. 대선 곧 다가온다!</t>
+          <t>미국으로 데려가지왜 미군 주둔지냐?조통령 정신차려라</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16646,12 +19886,17 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>미국으로 데려가지왜 미군 주둔지냐?조통령 정신차려라</t>
+          <t>청년정의당 너희들과 같이 북한으로 가라 정은이가 환대해줄것이다 총알로</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16671,12 +19916,17 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>청년정의당 너희들과 같이 북한으로 가라 정은이가 환대해줄것이다 총알로</t>
+          <t>정우성집으로</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16696,12 +19946,17 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>정우성집으로</t>
+          <t>기사대로라면 일본도 호구 독일도 호구 다호구네 그리고 엄연히 미국탓인데 왜 다른나라로 폭탄돌리기하냐. 지들이 철수할때 얼마나 그지같이 했으면 반란이 일어나. 무능의 극치 미국</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16721,12 +19976,17 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>기사대로라면 일본도 호구 독일도 호구 다호구네 그리고 엄연히 미국탓인데 왜 다른나라로 폭탄돌리기하냐. 지들이 철수할때 얼마나 그지같이 했으면 반란이 일어나. 무능의 극치 미국</t>
+          <t>종교만 아니면 문제 없다고 본다. 하지만 그 종교는 현재 진행되는 것으로 보아 국제적으로 문제를 야기하고 있으며, 인격평등 자유 권리에 있어서 말이 안되는 율법을 가지고 있다. 종교와 율법을 버릴것에 서명한 사람이라면...앞으로도 그 종교와 율법을 익히고 따르지 않는다는 서명을 받아야 할 것이다. 그종교와 율법은 신정일치를 목표로하기 때문이다. 종교는 정치를 해서는 안되며, 정당활동을 해서도 안된다. 정치도 종교를 평등하게 인정해 주어야 한다. 하지만 자유/평등/인권에 있어서 이를 저해하는 정권이나 종교에 대하여는 과감하게 처분되야</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16746,12 +20006,17 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>종교만 아니면 문제 없다고 본다. 하지만 그 종교는 현재 진행되는 것으로 보아 국제적으로 문제를 야기하고 있으며, 인격평등 자유 권리에 있어서 말이 안되는 율법을 가지고 있다. 종교와 율법을 버릴것에 서명한 사람이라면...앞으로도 그 종교와 율법을 익히고 따르지 않는다는 서명을 받아야 할 것이다. 그종교와 율법은 신정일치를 목표로하기 때문이다. 종교는 정치를 해서는 안되며, 정당활동을 해서도 안된다. 정치도 종교를 평등하게 인정해 주어야 한다. 하지만 자유/평등/인권에 있어서 이를 저해하는 정권이나 종교에 대하여는 과감하게 처분되야</t>
+          <t>느그집이 없는데 어떻게 쉐어를 해ㅋㅋㅋㅋㅋㅋㅋ느그집 팔아서 난민이랑 살아</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16771,12 +20036,17 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>느그집이 없는데 어떻게 쉐어를 해ㅋㅋㅋㅋㅋㅋㅋ느그집 팔아서 난민이랑 살아</t>
+          <t>살기좋다는  중국에 아프간난민을  보내는게 어떨지?</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
           <t>6</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16796,12 +20066,17 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>살기좋다는  중국에 아프간난민을  보내는게 어떨지?</t>
+          <t>정우성한테 가봐. 그분은 난민 적극찬성이다.</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16821,10 +20096,15 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>정우성한테 가봐. 그분은 난민 적극찬성이다.</t>
+          <t>절대적으로 반대합니다. 지금도 난민으로 위장한 돈 많은 무슬림이 공짜혜택을 권리주장하는 뻔뻔한 인간들이 이태원 에 우글우글 하다.</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -16846,12 +20126,17 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>절대적으로 반대합니다. 지금도 난민으로 위장한 돈 많은 무슬림이 공짜혜택을 권리주장하는 뻔뻔한 인간들이 이태원 에 우글우글 하다.</t>
+          <t>나, 미국 남미,유럽 등에서 어렸을때부터 살며 세계유명대학원까지 나온 사람인데 한국만큼 온갖 외국인을 상전으로 모시며 사는 나라는 보지못했다. 난민옹호 정치인과 조직은 매국 이권조직이다. 난민 앞세워 돈벌이가 짭짤하지?  온갖 난민옹호단제 이주민지원 다문화센터 같은 조직은 눈먼 돈인 지원금으로 사익을 챙기는 자들이다. 이들과 이권을 함께 하며 혈세를 빨아먹고 표를 거래하는 매국 정치인들도 탐사취재로 다 까발려야한다.외국인에게 투표권을 주고 온갖 외국인 블러들여 국민 위에 상전으로 모시는 기형적인 행태...이런건 다 "이권" 때문이다</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -16871,12 +20156,17 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>나, 미국 남미,유럽 등에서 어렸을때부터 살며 세계유명대학원까지 나온 사람인데 한국만큼 온갖 외국인을 상전으로 모시며 사는 나라는 보지못했다. 난민옹호 정치인과 조직은 매국 이권조직이다. 난민 앞세워 돈벌이가 짭짤하지?  온갖 난민옹호단제 이주민지원 다문화센터 같은 조직은 눈먼 돈인 지원금으로 사익을 챙기는 자들이다. 이들과 이권을 함께 하며 혈세를 빨아먹고 표를 거래하는 매국 정치인들도 탐사취재로 다 까발려야한다.외국인에게 투표권을 주고 온갖 외국인 블러들여 국민 위에 상전으로 모시는 기형적인 행태...이런건 다 "이권" 때문이다</t>
+          <t>수송기에 아기 아이 여자 노약자들은 없고 대부분 건장한남자들뿐..처자식 내팽개치고 수송기에 지 혼자살겠다고하는자들 보니...넓디넓은 미국땅 다 놔두고 왜 굳이 한국에?</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16896,12 +20186,17 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>수송기에 아기 아이 여자 노약자들은 없고 대부분 건장한남자들뿐..처자식 내팽개치고 수송기에 지 혼자살겠다고하는자들 보니...넓디넓은 미국땅 다 놔두고 왜 굳이 한국에?</t>
+          <t>난민은 되지만 이슬람은 안됨</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16921,12 +20216,17 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>난민은 되지만 이슬람은 안됨</t>
+          <t>이기적인 한국인들 애들도 안낳으면서 인구절벽으로 힌국 없어질판에 난민이던 뭐던 받아야 한국이 있다 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -16946,10 +20246,15 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>이기적인 한국인들 애들도 안낳으면서 인구절벽으로 힌국 없어질판에 난민이던 뭐던 받아야 한국이 있다 ㅋㅋㅋ</t>
+          <t>....? 똥은 지들이 싸고 왜 우리가 닦아..?</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16971,12 +20276,17 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>....? 똥은 지들이 싸고 왜 우리가 닦아..?</t>
+          <t>우리가 어려울 때 받아준 나라들과 목숨바쳐 싸워준 사람들은 호구였냐? 이제 우리가 도와야한다. 미군기지로 이동하는 거니 엄밀히 말하면 우리가 돕는 것도 아니다. 반대하는 놈들이야 말로 우리나라 사람이 아니다. 북한과 중국놈들이 한국 게시판에서 반대여론 선동하고 갈등부추겨 미군을 몰아내려는 속셈이지. 누가 반대하는지 잘 봐둬라, 그 놈들이 바로 간첩들이다.</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -16996,12 +20306,17 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>우리가 어려울 때 받아준 나라들과 목숨바쳐 싸워준 사람들은 호구였냐? 이제 우리가 도와야한다. 미군기지로 이동하는 거니 엄밀히 말하면 우리가 돕는 것도 아니다. 반대하는 놈들이야 말로 우리나라 사람이 아니다. 북한과 중국놈들이 한국 게시판에서 반대여론 선동하고 갈등부추겨 미군을 몰아내려는 속셈이지. 누가 반대하는지 잘 봐둬라, 그 놈들이 바로 간첩들이다.</t>
+          <t>미국이 뿌린걸 왜 우리가 수습해야하냐~정말 갑질하고있네~</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17021,12 +20336,17 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>미국이 뿌린걸 왜 우리가 수습해야하냐~정말 갑질하고있네~</t>
+          <t>애시당초 난민을 만들지 않는게 제일 중요하지. 그러기 위해선 텔레반같은 폭정괴뢰들을 몰아내고 지들이 지들국토에서 살기 좋은 나라로 만들려고 노력해야지. 국민이 미개하면 이꼴난다.</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17046,12 +20366,17 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>애시당초 난민을 만들지 않는게 제일 중요하지. 그러기 위해선 텔레반같은 폭정괴뢰들을 몰아내고 지들이 지들국토에서 살기 좋은 나라로 만들려고 노력해야지. 국민이 미개하면 이꼴난다.</t>
+          <t>무함마드 풍자 했다고 프랑스 교사를 참수 시키는게 이슬람 놈들이다 그런 것들을 난민으로 받자고?</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17071,12 +20396,17 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>무함마드 풍자 했다고 프랑스 교사를 참수 시키는게 이슬람 놈들이다 그런 것들을 난민으로 받자고?</t>
+          <t>참 어려운 문제이네요. 어려운 이웃을 돕는것은 당연한 것이라 배웠고 물론 당연합니다. 그런데 왜 난민이 이슬람 난민들이다(차별하려하는 것이 아니라 종교색이 너무 강해서) 생각하니 옛 이야기가 떠오르네요 " 검은 짐승은 거두는게 아니다 ㅠㅠ". 좋은 뜻으로 받아들였다가 사회적 혼란이 올것 같은 이 불안한 마음을 떨칠수가 없네요</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17096,12 +20426,17 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>참 어려운 문제이네요. 어려운 이웃을 돕는것은 당연한 것이라 배웠고 물론 당연합니다. 그런데 왜 난민이 이슬람 난민들이다(차별하려하는 것이 아니라 종교색이 너무 강해서) 생각하니 옛 이야기가 떠오르네요 " 검은 짐승은 거두는게 아니다 ㅠㅠ". 좋은 뜻으로 받아들였다가 사회적 혼란이 올것 같은 이 불안한 마음을 떨칠수가 없네요</t>
+          <t>미군기지가 미국땅인가?</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17121,12 +20456,17 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>미군기지가 미국땅인가?</t>
+          <t>절대 불가하다이건  실질적으로 주권을 침해하는거지안돼</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17146,12 +20486,17 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>절대 불가하다이건  실질적으로 주권을 침해하는거지안돼</t>
+          <t>지금도 차고 넘치는 조선족, 베트콩 으로도 처치곤란이다!</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17171,12 +20516,17 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>지금도 차고 넘치는 조선족, 베트콩 으로도 처치곤란이다!</t>
+          <t>이제 선진국이라는데 난민들을 어덯게 무시하냐 애써 웃으며 받아줄수밖에.. 어차피 미국에 우호적인 난민밖에 없음</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17196,10 +20546,15 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>이제 선진국이라는데 난민들을 어덯게 무시하냐 애써 웃으며 받아줄수밖에.. 어차피 미국에 우호적인 난민밖에 없음</t>
+          <t>진중권 집  사랑제일교회 정의당 사무실이 딱이다</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -17221,12 +20576,17 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>진중권 집  사랑제일교회 정의당 사무실이 딱이다</t>
+          <t>하와이로 난민수용소 만들어라</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17246,12 +20606,17 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>하와이로 난민수용소 만들어라</t>
+          <t>진중궎씨 어서 하루라도 빠리 니네 집에 아프칸 난민초청하길주데이로 나불데며언론 플레이 하지마라웃기고 있네진씨 어서 실천해니 알팍한 존재감 으로언론 플레이 하지마라</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17271,10 +20636,15 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>진중궎씨 어서 하루라도 빠리 니네 집에 아프칸 난민초청하길주데이로 나불데며언론 플레이 하지마라웃기고 있네진씨 어서 실천해니 알팍한 존재감 으로언론 플레이 하지마라</t>
+          <t>아니 뭔 개소리야 왜 우리나라가 난민을 받아줘야해 ㅡㅡ 아니 그리고 난민찬성하는 국회의원은 누구냐 아놔 진짜ㅡㅡ 생각이 있어없어 ....유럽 꼴 나고싶나??? 아니 그리고 미국 이놈새끼들은 뭔생각이야 지들이 저질러 놓고 왜 우리가 받아줘야하는지 ㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -17296,12 +20666,17 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>아니 뭔 개소리야 왜 우리나라가 난민을 받아줘야해 ㅡㅡ 아니 그리고 난민찬성하는 국회의원은 누구냐 아놔 진짜ㅡㅡ 생각이 있어없어 ....유럽 꼴 나고싶나??? 아니 그리고 미국 이놈새끼들은 뭔생각이야 지들이 저질러 놓고 왜 우리가 받아줘야하는지 ㅋㅋㅋㅋㅋㅋ</t>
+          <t>여자는 받고 남자는 받지마 이슬람권에서 남자는 일단 걸르고 여성은 받아도 사고 안침..  아이도 7세이하로만 입국 가능함.</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17321,12 +20696,17 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>여자는 받고 남자는 받지마 이슬람권에서 남자는 일단 걸르고 여성은 받아도 사고 안침..  아이도 7세이하로만 입국 가능함.</t>
+          <t>어후 진중권 말하는거 왜키 얄밉냐..... 아니 저기서 가정교육을 웨.들먹여</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17346,12 +20726,17 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>어후 진중권 말하는거 왜키 얄밉냐..... 아니 저기서 가정교육을 웨.들먹여</t>
+          <t>여자만받자 거기여자들이쁨</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -17371,10 +20756,15 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>여자만받자 거기여자들이쁨</t>
+          <t>아프간에 이익 볼려고 들이 댔다가 철수를 하면서 뒷처리를 우리가 해야 된다 이거네요.아예 텔래반을 깨끗하게 정리하고 나와야지.왜대충 하다가 시간버리고 돈버리고 또 나머지 공부하게 만드나요.버거 아저씨들아.</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -17396,12 +20786,17 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>아프간에 이익 볼려고 들이 댔다가 철수를 하면서 뒷처리를 우리가 해야 된다 이거네요.아예 텔래반을 깨끗하게 정리하고 나와야지.왜대충 하다가 시간버리고 돈버리고 또 나머지 공부하게 만드나요.버거 아저씨들아.</t>
+          <t>미국 본토 땅도 넓은데 왜???</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17421,12 +20816,17 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>미국 본토 땅도 넓은데 왜???</t>
+          <t>미군 기지가 미국땅 인가?이건 주권 문제다</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17446,12 +20846,17 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>미군 기지가 미국땅 인가?이건 주권 문제다</t>
+          <t>정치인들이 이따위니까 이나라가 이모양이지!!!! 야!! 이슬람이 극단적인걸 보고도 그말 하냐!!!! 미친인간들 국민들 의사를 대표해서 피력하는 게 국회의원이지!!!! 미친인간들아 이 나라에 와서 사원 짓고 이슬람 애새끼들 많아지면 이슬람 국가되는거 시간문제야!!! 그리스같은 나라는 바보냐!!!! 난민 인권을 왜 우리가 보호해줘야 하냐? 진중권 너 진짜 닥쳐라!!!! 우리나라가 지금 오지랖떨떼냐? 중국인도 해결 못하고 있는데 국민들이 너보다 생각없어 반대하는 줄아냐!!!</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -17471,12 +20876,17 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>정치인들이 이따위니까 이나라가 이모양이지!!!! 야!! 이슬람이 극단적인걸 보고도 그말 하냐!!!! 미친인간들 국민들 의사를 대표해서 피력하는 게 국회의원이지!!!! 미친인간들아 이 나라에 와서 사원 짓고 이슬람 애새끼들 많아지면 이슬람 국가되는거 시간문제야!!! 그리스같은 나라는 바보냐!!!! 난민 인권을 왜 우리가 보호해줘야 하냐? 진중권 너 진짜 닥쳐라!!!! 우리나라가 지금 오지랖떨떼냐? 중국인도 해결 못하고 있는데 국민들이 너보다 생각없어 반대하는 줄아냐!!!</t>
+          <t>난민 ㄲㅈ</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17496,10 +20906,15 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>난민 ㄲㅈ</t>
+          <t>미국 땅이 좁아서????????</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -17521,10 +20936,15 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>미국 땅이 좁아서????????</t>
+          <t>좋아요</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -17546,10 +20966,15 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>좋아요</t>
+          <t>여자랑 아이들만 고려할것!!!남자들은 받지마</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -17571,12 +20996,17 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>여자랑 아이들만 고려할것!!!남자들은 받지마</t>
+          <t>땅 떨어리 넓은 미국에 수용해라 대한민국이 니들 노예국이냐?</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17596,12 +21026,17 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>땅 떨어리 넓은 미국에 수용해라 대한민국이 니들 노예국이냐?</t>
+          <t>중권아 제주도에 있는 난민은 왜 쉐어 안 했어? 아프간 난민 못 올것 같다고 막 던지네</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17621,12 +21056,17 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>중권아 제주도에 있는 난민은 왜 쉐어 안 했어? 아프간 난민 못 올것 같다고 막 던지네</t>
+          <t>국제사회의 일원  미군내 기지 수용 일정시간후 제 3국 망영 이런 수순이겠지  중공것들 무방비로 받는것보다 훨 국제사회에 도움될듯</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17646,12 +21086,17 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>국제사회의 일원  미군내 기지 수용 일정시간후 제 3국 망영 이런 수순이겠지  중공것들 무방비로 받는것보다 훨 국제사회에 도움될듯</t>
+          <t>우리 우성이형 집에 10명 수용가능하답니다</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17671,12 +21116,17 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>우리 우성이형 집에 10명 수용가능하답니다</t>
+          <t>호구는 아니지.  개돼지이지.</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17696,12 +21146,17 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>호구는 아니지.  개돼지이지.</t>
+          <t>인권변호사 문재인 집으로</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -17721,12 +21176,17 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>인권변호사 문재인 집으로</t>
+          <t>진중권씨 자택에 받으면 될 것 같습니다 집주인의 허락도 받았습니다</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -17746,12 +21206,17 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>진중권씨 자택에 받으면 될 것 같습니다 집주인의 허락도 받았습니다</t>
+          <t>부끄럽지 않나요? 흥남철수를 기억합시다. 우리 정부시설도 아니고, 미군시설에 수용하겠다는 것도 못 받아들인다면 역사에 부끄럽지 않을까요?</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17771,12 +21236,17 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>부끄럽지 않나요? 흥남철수를 기억합시다. 우리 정부시설도 아니고, 미군시설에 수용하겠다는 것도 못 받아들인다면 역사에 부끄럽지 않을까요?</t>
+          <t>우리는 휴전국이다 착각마라</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17796,12 +21266,17 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>우리는 휴전국이다 착각마라</t>
+          <t>아주 미쳤네.. 이꼴로 지내다간 우리가 저런 난민될꺼같다.. 불쌍한 내새끼들ㅜㅜ</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17821,12 +21296,17 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>아주 미쳤네.. 이꼴로 지내다간 우리가 저런 난민될꺼같다.. 불쌍한 내새끼들ㅜㅜ</t>
+          <t>난민들이  오면   놀랄것이다  무슬림탈레반을 피해서왔는데  문슬림달레반들이 바글바글해서 바로 돌아갈것이다</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17846,12 +21326,17 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>난민들이  오면   놀랄것이다  무슬림탈레반을 피해서왔는데  문슬림달레반들이 바글바글해서 바로 돌아갈것이다</t>
+          <t>그냥 일본처럼 난민기금 내고 난민받지마라</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -17871,12 +21356,17 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>그냥 일본처럼 난민기금 내고 난민받지마라</t>
+          <t>한국인구도 줄고 있는데 받아야 합니다. 젊은꼰대들 아이안낳고 욜로족한다는데 이렇게라도 인구 늘려야죠.</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -17896,10 +21386,15 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>한국인구도 줄고 있는데 받아야 합니다. 젊은꼰대들 아이안낳고 욜로족한다는데 이렇게라도 인구 늘려야죠.</t>
+          <t>반미팔이 하는 대깨들 또 미국 욕하고 자빠졌네</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -17921,12 +21416,17 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>반미팔이 하는 대깨들 또 미국 욕하고 자빠졌네</t>
+          <t>도와줘야한다. 인도적 차원에서.</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -17946,10 +21446,15 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>도와줘야한다. 인도적 차원에서.</t>
+          <t>수용소를 청담송 증 강남애 만들자. 그런 난 찬성</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -17971,12 +21476,17 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>수용소를 청담송 증 강남애 만들자. 그런 난 찬성</t>
+          <t>정우성 한마디 해야지</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17996,10 +21506,15 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>정우성 한마디 해야지</t>
+          <t>대한민국은 단일민족국가에서 점점 멀어지고 있네... 저출산률 다문화가정 등등 이제는 받아들여야하는건가 국가의 정체성과 존폐의 위기임에는 분명한것같다</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -18021,12 +21536,17 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>대한민국은 단일민족국가에서 점점 멀어지고 있네... 저출산률 다문화가정 등등 이제는 받아들여야하는건가 국가의 정체성과 존폐의 위기임에는 분명한것같다</t>
+          <t>백날 인터넷으로 반대해봐라 올께 안오고 안올께 오는지 ㅉㅉㅉ 방구석에선 다 국회의원이지</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18046,12 +21566,17 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>백날 인터넷으로 반대해봐라 올께 안오고 안올께 오는지 ㅉㅉㅉ 방구석에선 다 국회의원이지</t>
+          <t>우리나라 국민들이 수용의지를 보여야지 무슨 미국이 떨구고 가면 우리가 수용해 줘야하는 건가요?</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18071,12 +21596,17 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>우리나라 국민들이 수용의지를 보여야지 무슨 미국이 떨구고 가면 우리가 수용해 줘야하는 건가요?</t>
+          <t>인도적 차원에서 안타까운 건 사실이다..그러나 아프간 난민수용은 절대 반대한다..!!</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18096,37 +21626,17 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>인도적 차원에서 안타까운 건 사실이다..그러나 아프간 난민수용은 절대 반대한다..!!</t>
+          <t>누구 맘대로? 아무리 동맹국인 미국이라고 해도 절대 반대</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>eun5****</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>2021.08.22. 14:37</t>
-        </is>
-      </c>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>누구 맘대로? 아무리 동맹국인 미국이라고 해도 절대 반대</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
           <t>13</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
